--- a/3096-Pracs-ISLMDS002/Prac1/Lab1/PythonVsC.xlsx
+++ b/3096-Pracs-ISLMDS002/Prac1/Lab1/PythonVsC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UCT\Third_Year\Second Semester\EEE3096S\EEE3096S\3096-Pracs-ISLMDS002\Prac1\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C33756-49ED-4455-B0CD-01FDB4EBAF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484EEA2-2BDA-4431-AB47-D251AC1F579F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="2325" windowWidth="13530" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Mean</t>
   </si>
   <si>
-    <t>Python</t>
+    <t>Python (ms)</t>
   </si>
   <si>
-    <t>C</t>
+    <t>C (ms)</t>
   </si>
 </sst>
 </file>
@@ -368,10 +368,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -389,7 +392,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>366</v>
+        <v>3.66127</v>
       </c>
       <c r="C2">
         <v>6.3249870000000001</v>
@@ -400,7 +403,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>304</v>
+        <v>3.0455299999999998</v>
       </c>
       <c r="C3">
         <v>45.147908000000001</v>
@@ -411,7 +414,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>333</v>
+        <v>3.3317299999999999</v>
       </c>
       <c r="C4">
         <v>15.101969</v>
@@ -422,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>249</v>
+        <v>2.4952700000000001</v>
       </c>
       <c r="C5">
         <v>15.090968999999999</v>
@@ -433,7 +436,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>367</v>
+        <v>3.6767500000000002</v>
       </c>
       <c r="C6">
         <v>44.196908999999998</v>
@@ -445,7 +448,7 @@
       </c>
       <c r="B7">
         <f>AVERAGE(B2:B6)</f>
-        <v>323.8</v>
+        <v>3.2421099999999994</v>
       </c>
       <c r="C7">
         <f>AVERAGE(C2:C6)</f>
